--- a/Doc/2.UI/外注チェック/テーブル定義_外注チェック.xlsx
+++ b/Doc/2.UI/外注チェック/テーブル定義_外注チェック.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="5445" windowWidth="17490" windowHeight="12495" tabRatio="781"/>
+    <workbookView xWindow="2370" yWindow="6045" windowWidth="17490" windowHeight="12495" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧 " sheetId="317" r:id="rId1"/>
@@ -379,7 +379,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -440,14 +440,6 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color indexed="12"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
@@ -892,7 +884,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1095,11 +1087,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1133,6 +1123,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -9266,12 +9257,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1">
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="15" thickTop="1">
       <c r="A7" s="10">
         <f>IF(B7&lt;&gt;"",ROW()-6,"")</f>
         <v>1</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="88" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="11"/>
@@ -9279,12 +9270,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" ht="15.75">
+    <row r="8" spans="1:4" s="3" customFormat="1">
       <c r="A8" s="16">
         <f t="shared" ref="A8:A26" si="0">IF(B8&lt;&gt;"",ROW()-6,"")</f>
         <v>2</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="65" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="17"/>
@@ -9834,80 +9825,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="85"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="79" t="str">
+      <c r="A7" s="77" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>外注費テーブル</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="85"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82" t="s">
+      <c r="J9" s="80"/>
+      <c r="K9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="87"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="68" t="s">
         <v>1</v>
       </c>
@@ -9920,18 +9911,18 @@
       <c r="E10" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="52" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="59">
@@ -10044,7 +10035,7 @@
       <c r="H14" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="77" t="s">
+      <c r="I14" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J14" s="56"/>
@@ -10072,7 +10063,7 @@
       <c r="H15" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J15" s="56"/>
@@ -10179,7 +10170,7 @@
       <c r="H19" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J19" s="56"/>
@@ -10207,7 +10198,7 @@
       <c r="H20" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="77" t="s">
+      <c r="I20" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J20" s="56"/>
@@ -10236,7 +10227,7 @@
       <c r="H21" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J21" s="56"/>
@@ -10263,7 +10254,7 @@
       <c r="H22" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="77" t="s">
+      <c r="I22" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J22" s="56"/>
@@ -10290,7 +10281,7 @@
       <c r="H23" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J23" s="56"/>
@@ -10584,7 +10575,7 @@
       <c r="H34" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="77" t="s">
+      <c r="I34" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J34" s="56"/>
@@ -10610,7 +10601,7 @@
       <c r="H35" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="77" t="s">
+      <c r="I35" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J35" s="56"/>
@@ -10788,7 +10779,7 @@
       <c r="H42" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="77" t="s">
+      <c r="I42" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J42" s="71"/>
@@ -10979,82 +10970,82 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="85"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="79" t="str">
+      <c r="A7" s="77" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>業務伝票テーブル前期分</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82" t="s">
+      <c r="J9" s="80"/>
+      <c r="K9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="87"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="69" t="s">
         <v>1</v>
       </c>
@@ -11067,18 +11058,18 @@
       <c r="E10" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="52" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="59">
@@ -11191,7 +11182,7 @@
       <c r="H14" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="77" t="s">
+      <c r="I14" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J14" s="56"/>
@@ -11219,7 +11210,7 @@
       <c r="H15" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J15" s="56"/>
@@ -11326,7 +11317,7 @@
       <c r="H19" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J19" s="56"/>
@@ -11354,7 +11345,7 @@
       <c r="H20" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="77" t="s">
+      <c r="I20" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J20" s="56"/>
@@ -11383,7 +11374,7 @@
       <c r="H21" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J21" s="56"/>
@@ -11410,7 +11401,7 @@
       <c r="H22" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="77" t="s">
+      <c r="I22" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J22" s="56"/>
@@ -11437,7 +11428,7 @@
       <c r="H23" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J23" s="56"/>
@@ -11731,7 +11722,7 @@
       <c r="H34" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="77" t="s">
+      <c r="I34" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J34" s="56"/>
@@ -11757,7 +11748,7 @@
       <c r="H35" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="77" t="s">
+      <c r="I35" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J35" s="56"/>
@@ -11935,7 +11926,7 @@
       <c r="H42" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="77" t="s">
+      <c r="I42" s="76" t="s">
         <v>61</v>
       </c>
       <c r="J42" s="71"/>
@@ -12044,12 +12035,6 @@
     <row r="90" s="49" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="L7:M7"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
@@ -12059,6 +12044,12 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="0.82" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
